--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H2">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I2">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J2">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N2">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O2">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P2">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q2">
-        <v>14.25644679077778</v>
+        <v>3.763561919942</v>
       </c>
       <c r="R2">
-        <v>128.308021117</v>
+        <v>33.872057279478</v>
       </c>
       <c r="S2">
-        <v>0.02260682536485828</v>
+        <v>0.006826818885526527</v>
       </c>
       <c r="T2">
-        <v>0.0252929283560006</v>
+        <v>0.007777578276215803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H3">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I3">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J3">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>115.798042</v>
       </c>
       <c r="O3">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P3">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q3">
-        <v>18.53527792497556</v>
+        <v>6.004591669868001</v>
       </c>
       <c r="R3">
-        <v>166.81750132478</v>
+        <v>54.041325028812</v>
       </c>
       <c r="S3">
-        <v>0.0293918812512311</v>
+        <v>0.0108918786733717</v>
       </c>
       <c r="T3">
-        <v>0.03288417257785659</v>
+        <v>0.01240877198848676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H4">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I4">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J4">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N4">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O4">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P4">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q4">
-        <v>16.62227236509556</v>
+        <v>7.526042269152001</v>
       </c>
       <c r="R4">
-        <v>149.60045128586</v>
+        <v>67.73438042236801</v>
       </c>
       <c r="S4">
-        <v>0.02635837765465571</v>
+        <v>0.0136516758829119</v>
       </c>
       <c r="T4">
-        <v>0.02949023345117495</v>
+        <v>0.01555292143548433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H5">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I5">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J5">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N5">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O5">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P5">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q5">
-        <v>3.911064513753333</v>
+        <v>0.8646873323880001</v>
       </c>
       <c r="R5">
-        <v>23.46638708252</v>
+        <v>5.188123994328</v>
       </c>
       <c r="S5">
-        <v>0.006201878613281892</v>
+        <v>0.001568477930320042</v>
       </c>
       <c r="T5">
-        <v>0.004625849904669108</v>
+        <v>0.001191278112801457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H6">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I6">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J6">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N6">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O6">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P6">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q6">
-        <v>21.39096588459778</v>
+        <v>6.646210768648001</v>
       </c>
       <c r="R6">
-        <v>192.51869296138</v>
+        <v>59.81589691783201</v>
       </c>
       <c r="S6">
-        <v>0.03392022130307833</v>
+        <v>0.01205572756812652</v>
       </c>
       <c r="T6">
-        <v>0.03795056198258132</v>
+        <v>0.01373470812835327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J7">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N7">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O7">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P7">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q7">
-        <v>51.91265911645556</v>
+        <v>42.30353564738344</v>
       </c>
       <c r="R7">
-        <v>467.2139320481</v>
+        <v>380.731820826451</v>
       </c>
       <c r="S7">
-        <v>0.08231927885637642</v>
+        <v>0.07673543898715837</v>
       </c>
       <c r="T7">
-        <v>0.09210030992093776</v>
+        <v>0.08742225233889092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J8">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>115.798042</v>
       </c>
       <c r="O8">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P8">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q8">
         <v>67.49336483831711</v>
@@ -948,10 +948,10 @@
         <v>607.440283544854</v>
       </c>
       <c r="S8">
-        <v>0.1070260166911659</v>
+        <v>0.1224278987638009</v>
       </c>
       <c r="T8">
-        <v>0.1197426586311295</v>
+        <v>0.1394782228435589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J9">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N9">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O9">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P9">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q9">
-        <v>60.52744920903312</v>
+        <v>84.59491412371733</v>
       </c>
       <c r="R9">
-        <v>544.7470428812981</v>
+        <v>761.3542271134561</v>
       </c>
       <c r="S9">
-        <v>0.09597997973338558</v>
+        <v>0.1534488257783702</v>
       </c>
       <c r="T9">
-        <v>0.1073841511060007</v>
+        <v>0.1748193813102203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J10">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N10">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O10">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P10">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q10">
-        <v>14.24154011617267</v>
+        <v>9.719338267212667</v>
       </c>
       <c r="R10">
-        <v>85.449240697036</v>
+        <v>58.31602960327601</v>
       </c>
       <c r="S10">
-        <v>0.02258318745602208</v>
+        <v>0.0176301502270622</v>
       </c>
       <c r="T10">
-        <v>0.01684432122177301</v>
+        <v>0.01339031406493261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.245687</v>
       </c>
       <c r="I11">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J11">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N11">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O11">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P11">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q11">
-        <v>77.89191349258155</v>
+        <v>74.70535098193822</v>
       </c>
       <c r="R11">
-        <v>701.027221433234</v>
+        <v>672.3481588374441</v>
       </c>
       <c r="S11">
-        <v>0.1235152707756413</v>
+        <v>0.1355099004034038</v>
       </c>
       <c r="T11">
-        <v>0.1381911367111538</v>
+        <v>0.1543821324781482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H12">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I12">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J12">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N12">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O12">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P12">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q12">
-        <v>4.775309467011111</v>
+        <v>5.177726242756889</v>
       </c>
       <c r="R12">
-        <v>42.9777852031</v>
+        <v>46.599536184812</v>
       </c>
       <c r="S12">
-        <v>0.007572334731660375</v>
+        <v>0.00939200684087158</v>
       </c>
       <c r="T12">
-        <v>0.008472066146592343</v>
+        <v>0.01070001557101499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H13">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I13">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J13">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>115.798042</v>
       </c>
       <c r="O13">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P13">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q13">
-        <v>6.208537754728222</v>
+        <v>8.260826453094223</v>
       </c>
       <c r="R13">
-        <v>55.87683979255399</v>
+        <v>74.347438077848</v>
       </c>
       <c r="S13">
-        <v>0.009845042797274243</v>
+        <v>0.01498451925055875</v>
       </c>
       <c r="T13">
-        <v>0.01101481336341443</v>
+        <v>0.01707138761946146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H14">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I14">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J14">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N14">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O14">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P14">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q14">
-        <v>5.567761431244223</v>
+        <v>10.35396451287467</v>
       </c>
       <c r="R14">
-        <v>50.109852881198</v>
+        <v>93.18568061587202</v>
       </c>
       <c r="S14">
-        <v>0.008828946805367662</v>
+        <v>0.01878131461104101</v>
       </c>
       <c r="T14">
-        <v>0.00987798664354855</v>
+        <v>0.0213969561763672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H15">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I15">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J15">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N15">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O15">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P15">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q15">
-        <v>1.310041953139333</v>
+        <v>1.189594960285334</v>
       </c>
       <c r="R15">
-        <v>7.860251718836</v>
+        <v>7.137569761712001</v>
       </c>
       <c r="S15">
-        <v>0.002077368231361598</v>
+        <v>0.002157835984568642</v>
       </c>
       <c r="T15">
-        <v>0.001549464966055101</v>
+        <v>0.001638902741148222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H16">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I16">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J16">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N16">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O16">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P16">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q16">
-        <v>7.16507299443711</v>
+        <v>9.143534939436446</v>
       </c>
       <c r="R16">
-        <v>64.485656949934</v>
+        <v>82.29181445492802</v>
       </c>
       <c r="S16">
-        <v>0.0113618460678774</v>
+        <v>0.01658568620175069</v>
       </c>
       <c r="T16">
-        <v>0.01271184051492017</v>
+        <v>0.01889554635356631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H17">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I17">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J17">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N17">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O17">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P17">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q17">
-        <v>32.60689038671667</v>
+        <v>28.08567941536383</v>
       </c>
       <c r="R17">
-        <v>195.6413423203</v>
+        <v>168.514076492183</v>
       </c>
       <c r="S17">
-        <v>0.051705609923815</v>
+        <v>0.05094531476410631</v>
       </c>
       <c r="T17">
-        <v>0.03856611934079242</v>
+        <v>0.0386935877483958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H18">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I18">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J18">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>115.798042</v>
       </c>
       <c r="O18">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P18">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q18">
-        <v>42.39329648240034</v>
+        <v>44.80942262873033</v>
       </c>
       <c r="R18">
-        <v>254.359778894402</v>
+        <v>268.856535772382</v>
       </c>
       <c r="S18">
-        <v>0.06722417333597047</v>
+        <v>0.08128092991653775</v>
       </c>
       <c r="T18">
-        <v>0.05014108711378033</v>
+        <v>0.06173385734408336</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H19">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I19">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J19">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N19">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O19">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P19">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q19">
-        <v>38.01793118166234</v>
+        <v>56.163287580808</v>
       </c>
       <c r="R19">
-        <v>228.107587089974</v>
+        <v>336.979725484848</v>
       </c>
       <c r="S19">
-        <v>0.06028604066428472</v>
+        <v>0.1018759888865669</v>
       </c>
       <c r="T19">
-        <v>0.04496608090047503</v>
+        <v>0.07737605575094579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H20">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I20">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J20">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N20">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O20">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P20">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q20">
-        <v>8.945262011417</v>
+        <v>6.452751868727001</v>
       </c>
       <c r="R20">
-        <v>35.781048045668</v>
+        <v>25.811007474908</v>
       </c>
       <c r="S20">
-        <v>0.01418473895373564</v>
+        <v>0.01170480764183121</v>
       </c>
       <c r="T20">
-        <v>0.007053397572833336</v>
+        <v>0.005926629415146699</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H21">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I21">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J21">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N21">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O21">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P21">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q21">
-        <v>48.92473490072366</v>
+        <v>49.59752196080867</v>
       </c>
       <c r="R21">
-        <v>293.548409404342</v>
+        <v>297.585131764852</v>
       </c>
       <c r="S21">
-        <v>0.07758124826994887</v>
+        <v>0.08996618278106698</v>
       </c>
       <c r="T21">
-        <v>0.05786620994888238</v>
+        <v>0.06833041279548754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H22">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I22">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J22">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N22">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O22">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P22">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q22">
-        <v>16.77739913848889</v>
+        <v>4.314282626183111</v>
       </c>
       <c r="R22">
-        <v>150.9965922464</v>
+        <v>38.828543635648</v>
       </c>
       <c r="S22">
-        <v>0.02660436628891944</v>
+        <v>0.007825784917703638</v>
       </c>
       <c r="T22">
-        <v>0.02976545001972927</v>
+        <v>0.008915668599222659</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H23">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I23">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J23">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>115.798042</v>
       </c>
       <c r="O23">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P23">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q23">
-        <v>21.81285143864178</v>
+        <v>6.883241479665778</v>
       </c>
       <c r="R23">
-        <v>196.315662947776</v>
+        <v>61.949173316992</v>
       </c>
       <c r="S23">
-        <v>0.03458921640292319</v>
+        <v>0.0124856834898962</v>
       </c>
       <c r="T23">
-        <v>0.03869904589652327</v>
+        <v>0.01422454327602005</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H24">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I24">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J24">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N24">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O24">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P24">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q24">
-        <v>19.56157113694578</v>
+        <v>8.627325415765334</v>
       </c>
       <c r="R24">
-        <v>176.054140232512</v>
+        <v>77.64592874188801</v>
       </c>
       <c r="S24">
-        <v>0.03101930158651119</v>
+        <v>0.01564932086485704</v>
       </c>
       <c r="T24">
-        <v>0.03470496011794717</v>
+        <v>0.01782877501761284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H25">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I25">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J25">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N25">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O25">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P25">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q25">
-        <v>4.602653898730667</v>
+        <v>0.9912167288746667</v>
       </c>
       <c r="R25">
-        <v>27.615923392384</v>
+        <v>5.947300373248001</v>
       </c>
       <c r="S25">
-        <v>0.007298550222962789</v>
+        <v>0.001797992760123284</v>
       </c>
       <c r="T25">
-        <v>0.005443834031322492</v>
+        <v>0.001365597424551138</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H26">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I26">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J26">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N26">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O26">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P26">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q26">
-        <v>25.17350766783289</v>
+        <v>7.618748477923556</v>
       </c>
       <c r="R26">
-        <v>226.561569010496</v>
+        <v>68.568736301312</v>
       </c>
       <c r="S26">
-        <v>0.03991829801769079</v>
+        <v>0.01381983798846774</v>
       </c>
       <c r="T26">
-        <v>0.04466131955990645</v>
+        <v>0.01574450318988339</v>
       </c>
     </row>
   </sheetData>
